--- a/testcase_RF-License.xlsx
+++ b/testcase_RF-License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RF-License\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675E23-5240-49A9-8A81-CCA6EF1245D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A0353F-D059-4582-A163-4E604272744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -81,21 +81,6 @@
 3. Mã đơn vị được tự động sinh
 4. Thời gian tạo và cập nhật được ghi nhận
 </t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin đơn vị đã tồn tại</t>
-  </si>
-  <si>
-    <t>1. Truy cập trang Units
-2. Click nút "Sửa" (icon Edit màu cam) trên đơn vị cần sửa
-3. Thay đổi thông tin (ví dụ: Full Name)
-4. Click "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Thông tin được cập nhật thành công
-2. Thời gian "Cập nhật" được cập nhật
-3. Thông báo thành công hiển thị
-4. Không thể sửa Unit Code</t>
   </si>
   <si>
     <t>Xem chi tiết đơn vị</t>
@@ -736,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -947,6 +932,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1359,7 +1347,7 @@
     </row>
     <row r="4" spans="1:17" s="61" customFormat="1" ht="92.25" customHeight="1">
       <c r="A4" s="63">
-        <f t="shared" ref="A4:A28" si="0">ROW()-3</f>
+        <f t="shared" ref="A4:A27" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
@@ -1367,7 +1355,7 @@
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="66" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="68" t="s">
@@ -1375,7 +1363,7 @@
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="72"/>
@@ -1387,95 +1375,95 @@
       <c r="P4" s="74"/>
       <c r="Q4" s="77"/>
     </row>
-    <row r="5" spans="1:17" ht="144.75" customHeight="1">
-      <c r="A5" s="3">
+    <row r="5" spans="1:17" s="61" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" ht="72.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" s="61" customFormat="1" ht="146.25" customHeight="1">
+      <c r="A6" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" ht="146.25" customHeight="1">
-      <c r="A7" s="3">
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="1:17" s="61" customFormat="1" ht="190.5" customHeight="1">
+      <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="69"/>
+      <c r="H7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="190.5" customHeight="1">
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="77"/>
+    </row>
+    <row r="8" spans="1:17" ht="71.25" customHeight="1">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1505,7 +1493,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" ht="71.25" customHeight="1">
+    <row r="9" spans="1:17" ht="138.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1535,7 +1523,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" ht="138.75" customHeight="1">
+    <row r="10" spans="1:17" ht="99.95" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1595,85 +1583,83 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" ht="99.95" customHeight="1">
-      <c r="A12" s="3">
+    <row r="12" spans="1:17" s="61" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="77"/>
+    </row>
+    <row r="13" spans="1:17" ht="99.95" customHeight="1">
+      <c r="A13" s="17">
+        <f>ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" ht="99.95" customHeight="1">
-      <c r="A13" s="3">
+      <c r="E13" s="43"/>
+      <c r="F13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" ht="169.5" customHeight="1">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" ht="99.95" customHeight="1">
-      <c r="A14" s="17">
-        <f>ROW()-3</f>
         <v>11</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="42"/>
       <c r="E14" s="43"/>
       <c r="F14" s="44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="18"/>
@@ -1685,13 +1671,13 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="169.5" customHeight="1">
+    <row r="15" spans="1:17" ht="99.95" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="42"/>
@@ -1797,7 +1783,7 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" spans="1:17" ht="99.95" customHeight="1">
+    <row r="19" spans="1:17" ht="287.25" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1825,7 +1811,7 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:17" ht="287.25" customHeight="1">
+    <row r="20" spans="1:17" ht="200.25" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1834,7 +1820,9 @@
         <v>62</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44" t="s">
         <v>63</v>
@@ -1853,7 +1841,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="23"/>
     </row>
-    <row r="21" spans="1:17" ht="200.25" customHeight="1">
+    <row r="21" spans="1:17" ht="99.95" customHeight="1">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1862,9 +1850,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="D21" s="42"/>
       <c r="E21" s="43"/>
       <c r="F21" s="44" t="s">
         <v>66</v>
@@ -1883,7 +1869,7 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:17" ht="99.95" customHeight="1">
+    <row r="22" spans="1:17" ht="227.25" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1911,23 +1897,25 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:17" ht="227.25" customHeight="1">
+    <row r="23" spans="1:17" ht="99.95" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+        <v>40</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="44" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="40" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="18"/>
@@ -1939,35 +1927,33 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="23"/>
     </row>
-    <row r="24" spans="1:17" ht="99.95" customHeight="1">
-      <c r="A24" s="17">
+    <row r="24" spans="1:17" s="61" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A24" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="23"/>
+      <c r="B24" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" s="61" customFormat="1" ht="99.95" customHeight="1">
       <c r="A25" s="47">
@@ -1979,7 +1965,7 @@
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="62"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="52" t="s">
         <v>75</v>
       </c>
@@ -2006,14 +1992,16 @@
         <v>77</v>
       </c>
       <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="E26" s="51"/>
       <c r="F26" s="52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" s="53"/>
       <c r="H26" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
@@ -2025,162 +2013,128 @@
       <c r="P26" s="57"/>
       <c r="Q26" s="60"/>
     </row>
-    <row r="27" spans="1:17" s="61" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A27" s="47">
+    <row r="27" spans="1:17" ht="99.95" customHeight="1">
+      <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50" t="s">
+      <c r="B27" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="48" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="60"/>
-    </row>
-    <row r="28" spans="1:17" ht="99.95" customHeight="1">
-      <c r="A28" s="17">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="23"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
+  <mergeCells count="103">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B4:C4"/>
